--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H2">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N2">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q2">
-        <v>0.1148013295138889</v>
+        <v>0.07686274355677779</v>
       </c>
       <c r="R2">
-        <v>1.033211965625</v>
+        <v>0.691764692011</v>
       </c>
       <c r="S2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="T2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H3">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N3">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q3">
-        <v>1.446876854888889</v>
+        <v>2.212218614956444</v>
       </c>
       <c r="R3">
-        <v>13.021891694</v>
+        <v>19.909967534608</v>
       </c>
       <c r="S3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="T3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H4">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N4">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q4">
-        <v>0.4156344742083333</v>
+        <v>0.8686295040877778</v>
       </c>
       <c r="R4">
-        <v>3.740710267875</v>
+        <v>7.81766553679</v>
       </c>
       <c r="S4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="T4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
     </row>
   </sheetData>
